--- a/Data_Analy/County/County_29019_WW.xlsx
+++ b/Data_Analy/County/County_29019_WW.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/Python_UF/Data_Analy/County/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/Python_UF/Data_Analy/County/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D420C-1CA9-7748-81A4-3967A4E58398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D66E74-BA83-E449-BCC2-D11E30313E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="520" windowWidth="27240" windowHeight="16440" xr2:uid="{EC83AFF4-8826-A741-9C50-A6528513CF9D}"/>
+    <workbookView xWindow="16500" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{EC83AFF4-8826-A741-9C50-A6528513CF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="2">
   <si>
     <t>sars-cov-2</t>
   </si>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,21 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAF0BB4-8D0E-4243-B34D-32779B1D7D0E}">
-  <dimension ref="A2:I75"/>
+  <dimension ref="A2:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>145414</v>
       </c>
@@ -431,12 +428,8 @@
       <c r="G2">
         <v>29019</v>
       </c>
-      <c r="I2">
-        <f>D2/1000000</f>
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>249932</v>
       </c>
@@ -458,12 +451,8 @@
       <c r="G3">
         <v>29019</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">D3/1000000</f>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>255116</v>
       </c>
@@ -485,12 +474,8 @@
       <c r="G4">
         <v>29019</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>255117</v>
       </c>
@@ -512,12 +497,8 @@
       <c r="G5">
         <v>29019</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>255118</v>
       </c>
@@ -539,12 +520,8 @@
       <c r="G6">
         <v>29019</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>255119</v>
       </c>
@@ -566,12 +543,8 @@
       <c r="G7">
         <v>29019</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>252497</v>
       </c>
@@ -593,12 +566,8 @@
       <c r="G8">
         <v>29019</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>252498</v>
       </c>
@@ -620,12 +589,8 @@
       <c r="G9">
         <v>29019</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>255120</v>
       </c>
@@ -647,12 +612,8 @@
       <c r="G10">
         <v>29019</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>252499</v>
       </c>
@@ -674,12 +635,8 @@
       <c r="G11">
         <v>29019</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>145415</v>
       </c>
@@ -701,12 +658,8 @@
       <c r="G12">
         <v>29019</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>252500</v>
       </c>
@@ -728,12 +681,8 @@
       <c r="G13">
         <v>29019</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>255121</v>
       </c>
@@ -755,12 +704,8 @@
       <c r="G14">
         <v>29019</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>255122</v>
       </c>
@@ -782,12 +727,8 @@
       <c r="G15">
         <v>29019</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>252501</v>
       </c>
@@ -809,12 +750,8 @@
       <c r="G16">
         <v>29019</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>145416</v>
       </c>
@@ -836,12 +773,8 @@
       <c r="G17">
         <v>29019</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>145417</v>
       </c>
@@ -863,12 +796,8 @@
       <c r="G18">
         <v>29019</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>252502</v>
       </c>
@@ -890,12 +819,8 @@
       <c r="G19">
         <v>29019</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>252503</v>
       </c>
@@ -917,12 +842,8 @@
       <c r="G20">
         <v>29019</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>249933</v>
       </c>
@@ -944,12 +865,8 @@
       <c r="G21">
         <v>29019</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>255123</v>
       </c>
@@ -971,12 +888,8 @@
       <c r="G22">
         <v>29019</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>252504</v>
       </c>
@@ -998,12 +911,8 @@
       <c r="G23">
         <v>29019</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>252505</v>
       </c>
@@ -1025,12 +934,8 @@
       <c r="G24">
         <v>29019</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>255124</v>
       </c>
@@ -1052,12 +957,8 @@
       <c r="G25">
         <v>29019</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>249934</v>
       </c>
@@ -1079,12 +980,8 @@
       <c r="G26">
         <v>29019</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>145418</v>
       </c>
@@ -1106,12 +1003,8 @@
       <c r="G27">
         <v>29019</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>255125</v>
       </c>
@@ -1133,12 +1026,8 @@
       <c r="G28">
         <v>29019</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>255126</v>
       </c>
@@ -1160,12 +1049,8 @@
       <c r="G29">
         <v>29019</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>249935</v>
       </c>
@@ -1187,12 +1072,8 @@
       <c r="G30">
         <v>29019</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>145419</v>
       </c>
@@ -1214,12 +1095,8 @@
       <c r="G31">
         <v>29019</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>255127</v>
       </c>
@@ -1241,12 +1118,8 @@
       <c r="G32">
         <v>29019</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>145420</v>
       </c>
@@ -1268,12 +1141,8 @@
       <c r="G33">
         <v>29019</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>145421</v>
       </c>
@@ -1295,12 +1164,8 @@
       <c r="G34">
         <v>29019</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>255128</v>
       </c>
@@ -1322,12 +1187,8 @@
       <c r="G35">
         <v>29019</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>249936</v>
       </c>
@@ -1349,12 +1210,8 @@
       <c r="G36">
         <v>29019</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>255129</v>
       </c>
@@ -1376,12 +1233,8 @@
       <c r="G37">
         <v>29019</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>252506</v>
       </c>
@@ -1403,12 +1256,8 @@
       <c r="G38">
         <v>29019</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>145422</v>
       </c>
@@ -1430,12 +1279,8 @@
       <c r="G39">
         <v>29019</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>255130</v>
       </c>
@@ -1457,12 +1302,8 @@
       <c r="G40">
         <v>29019</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>252507</v>
       </c>
@@ -1484,12 +1325,8 @@
       <c r="G41">
         <v>29019</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>249937</v>
       </c>
@@ -1511,12 +1348,8 @@
       <c r="G42">
         <v>29019</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>255131</v>
       </c>
@@ -1538,12 +1371,8 @@
       <c r="G43">
         <v>29019</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>252508</v>
       </c>
@@ -1565,12 +1394,8 @@
       <c r="G44">
         <v>29019</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0.85992008040000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>145423</v>
       </c>
@@ -1592,12 +1417,8 @@
       <c r="G45">
         <v>29019</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>252509</v>
       </c>
@@ -1619,12 +1440,8 @@
       <c r="G46">
         <v>29019</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>255132</v>
       </c>
@@ -1646,12 +1463,8 @@
       <c r="G47">
         <v>29019</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>255133</v>
       </c>
@@ -1673,12 +1486,8 @@
       <c r="G48">
         <v>29019</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>249938</v>
       </c>
@@ -1700,12 +1509,8 @@
       <c r="G49">
         <v>29019</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>252510</v>
       </c>
@@ -1727,12 +1532,8 @@
       <c r="G50">
         <v>29019</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>255134</v>
       </c>
@@ -1754,12 +1555,8 @@
       <c r="G51">
         <v>29019</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>249939</v>
       </c>
@@ -1781,12 +1578,8 @@
       <c r="G52">
         <v>29019</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>71.099999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>249940</v>
       </c>
@@ -1808,12 +1601,8 @@
       <c r="G53">
         <v>29019</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>145424</v>
       </c>
@@ -1835,12 +1624,8 @@
       <c r="G54">
         <v>29019</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>252511</v>
       </c>
@@ -1862,12 +1647,8 @@
       <c r="G55">
         <v>29019</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>145425</v>
       </c>
@@ -1889,12 +1670,8 @@
       <c r="G56">
         <v>29019</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>145426</v>
       </c>
@@ -1916,12 +1693,8 @@
       <c r="G57">
         <v>29019</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>249941</v>
       </c>
@@ -1943,12 +1716,8 @@
       <c r="G58">
         <v>29019</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>249942</v>
       </c>
@@ -1970,12 +1739,8 @@
       <c r="G59">
         <v>29019</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>249943</v>
       </c>
@@ -1997,12 +1762,8 @@
       <c r="G60">
         <v>29019</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>252512</v>
       </c>
@@ -2024,12 +1785,8 @@
       <c r="G61">
         <v>29019</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>252513</v>
       </c>
@@ -2051,12 +1808,8 @@
       <c r="G62">
         <v>29019</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>249944</v>
       </c>
@@ -2078,12 +1831,8 @@
       <c r="G63">
         <v>29019</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>252514</v>
       </c>
@@ -2105,12 +1854,8 @@
       <c r="G64">
         <v>29019</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>74.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>145427</v>
       </c>
@@ -2132,12 +1877,8 @@
       <c r="G65">
         <v>29019</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>255135</v>
       </c>
@@ -2159,12 +1900,8 @@
       <c r="G66">
         <v>29019</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>145428</v>
       </c>
@@ -2186,12 +1923,8 @@
       <c r="G67">
         <v>29019</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I75" si="1">D67/1000000</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>255136</v>
       </c>
@@ -2213,12 +1946,8 @@
       <c r="G68">
         <v>29019</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="1"/>
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>145429</v>
       </c>
@@ -2240,12 +1969,8 @@
       <c r="G69">
         <v>29019</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>252515</v>
       </c>
@@ -2267,12 +1992,8 @@
       <c r="G70">
         <v>29019</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>252516</v>
       </c>
@@ -2294,12 +2015,8 @@
       <c r="G71">
         <v>29019</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="1"/>
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>252517</v>
       </c>
@@ -2321,12 +2038,8 @@
       <c r="G72">
         <v>29019</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="1"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>252518</v>
       </c>
@@ -2348,12 +2061,8 @@
       <c r="G73">
         <v>29019</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="1"/>
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>255137</v>
       </c>
@@ -2375,12 +2084,8 @@
       <c r="G74">
         <v>29019</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="1"/>
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>145430</v>
       </c>
@@ -2402,9 +2107,2374 @@
       <c r="G75">
         <v>29019</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="1"/>
-        <v>49.6</v>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>252519</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44536</v>
+      </c>
+      <c r="C76">
+        <v>119</v>
+      </c>
+      <c r="D76">
+        <v>116000000</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>145431</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44543</v>
+      </c>
+      <c r="C77">
+        <v>119</v>
+      </c>
+      <c r="D77">
+        <v>160000000</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>255138</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C78">
+        <v>119</v>
+      </c>
+      <c r="D78">
+        <v>90900000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>145432</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44557</v>
+      </c>
+      <c r="C79">
+        <v>119</v>
+      </c>
+      <c r="D79">
+        <v>94800000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>145433</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44564</v>
+      </c>
+      <c r="C80">
+        <v>119</v>
+      </c>
+      <c r="D80">
+        <v>185000000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>252087</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44566</v>
+      </c>
+      <c r="C81">
+        <v>45</v>
+      </c>
+      <c r="D81">
+        <v>281000000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>249945</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44571</v>
+      </c>
+      <c r="C82">
+        <v>119</v>
+      </c>
+      <c r="D82">
+        <v>352000000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>255139</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44578</v>
+      </c>
+      <c r="C83">
+        <v>119</v>
+      </c>
+      <c r="D83">
+        <v>462000000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>145434</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44585</v>
+      </c>
+      <c r="C84">
+        <v>119</v>
+      </c>
+      <c r="D84">
+        <v>233000000</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>249946</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44592</v>
+      </c>
+      <c r="C85">
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>108000000</v>
+      </c>
+      <c r="E85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>145435</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44599</v>
+      </c>
+      <c r="C86">
+        <v>119</v>
+      </c>
+      <c r="D86">
+        <v>37700000</v>
+      </c>
+      <c r="E86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>249947</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44606</v>
+      </c>
+      <c r="C87">
+        <v>119</v>
+      </c>
+      <c r="D87">
+        <v>12600000</v>
+      </c>
+      <c r="E87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>145436</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44613</v>
+      </c>
+      <c r="C88">
+        <v>119</v>
+      </c>
+      <c r="D88">
+        <v>19900000</v>
+      </c>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>255140</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44620</v>
+      </c>
+      <c r="C89">
+        <v>119</v>
+      </c>
+      <c r="D89">
+        <v>3507941.6469999999</v>
+      </c>
+      <c r="E89" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>255141</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C90">
+        <v>119</v>
+      </c>
+      <c r="D90">
+        <v>4687136.9309999999</v>
+      </c>
+      <c r="E90" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>255142</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44634</v>
+      </c>
+      <c r="C91">
+        <v>119</v>
+      </c>
+      <c r="D91">
+        <v>5458940.9970000004</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>252520</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C92">
+        <v>119</v>
+      </c>
+      <c r="D92">
+        <v>3851414.4610000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>255143</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44648</v>
+      </c>
+      <c r="C93">
+        <v>119</v>
+      </c>
+      <c r="D93">
+        <v>3593602.9989999998</v>
+      </c>
+      <c r="E93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>249948</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C94">
+        <v>119</v>
+      </c>
+      <c r="D94">
+        <v>1495359.3670000001</v>
+      </c>
+      <c r="E94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>249949</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44662</v>
+      </c>
+      <c r="C95">
+        <v>119</v>
+      </c>
+      <c r="D95">
+        <v>6784511.8169999998</v>
+      </c>
+      <c r="E95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>145437</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44669</v>
+      </c>
+      <c r="C96">
+        <v>119</v>
+      </c>
+      <c r="D96">
+        <v>10900000</v>
+      </c>
+      <c r="E96" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>249950</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44676</v>
+      </c>
+      <c r="C97">
+        <v>119</v>
+      </c>
+      <c r="D97">
+        <v>6532438.142</v>
+      </c>
+      <c r="E97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>145438</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44683</v>
+      </c>
+      <c r="C98">
+        <v>119</v>
+      </c>
+      <c r="D98">
+        <v>21600000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>145439</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44690</v>
+      </c>
+      <c r="C99">
+        <v>119</v>
+      </c>
+      <c r="D99">
+        <v>32200000</v>
+      </c>
+      <c r="E99" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>255144</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C100">
+        <v>119</v>
+      </c>
+      <c r="D100">
+        <v>14300000</v>
+      </c>
+      <c r="E100" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>249951</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44704</v>
+      </c>
+      <c r="C101">
+        <v>119</v>
+      </c>
+      <c r="D101">
+        <v>29800000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>252521</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44711</v>
+      </c>
+      <c r="C102">
+        <v>119</v>
+      </c>
+      <c r="D102">
+        <v>46400000</v>
+      </c>
+      <c r="E102" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>145440</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C103">
+        <v>119</v>
+      </c>
+      <c r="D103">
+        <v>26700000</v>
+      </c>
+      <c r="E103" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>252522</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44725</v>
+      </c>
+      <c r="C104">
+        <v>119</v>
+      </c>
+      <c r="D104">
+        <v>55800000</v>
+      </c>
+      <c r="E104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>252523</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44732</v>
+      </c>
+      <c r="C105">
+        <v>119</v>
+      </c>
+      <c r="D105">
+        <v>44400000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>252524</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44739</v>
+      </c>
+      <c r="C106">
+        <v>119</v>
+      </c>
+      <c r="D106">
+        <v>53400000</v>
+      </c>
+      <c r="E106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>255145</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44746</v>
+      </c>
+      <c r="C107">
+        <v>119</v>
+      </c>
+      <c r="D107">
+        <v>26700000</v>
+      </c>
+      <c r="E107" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>255146</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44753</v>
+      </c>
+      <c r="C108">
+        <v>119</v>
+      </c>
+      <c r="D108">
+        <v>100000000</v>
+      </c>
+      <c r="E108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>145441</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C109">
+        <v>119</v>
+      </c>
+      <c r="D109">
+        <v>29900000</v>
+      </c>
+      <c r="E109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>252525</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44767</v>
+      </c>
+      <c r="C110">
+        <v>119</v>
+      </c>
+      <c r="D110">
+        <v>46200000</v>
+      </c>
+      <c r="E110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>249952</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44774</v>
+      </c>
+      <c r="C111">
+        <v>119</v>
+      </c>
+      <c r="D111">
+        <v>63600000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>145442</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44781</v>
+      </c>
+      <c r="C112">
+        <v>119</v>
+      </c>
+      <c r="D112">
+        <v>36300000</v>
+      </c>
+      <c r="E112" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>255147</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44788</v>
+      </c>
+      <c r="C113">
+        <v>119</v>
+      </c>
+      <c r="D113">
+        <v>46200000</v>
+      </c>
+      <c r="E113" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>145443</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44795</v>
+      </c>
+      <c r="C114">
+        <v>119</v>
+      </c>
+      <c r="D114">
+        <v>21200000</v>
+      </c>
+      <c r="E114" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>145444</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44802</v>
+      </c>
+      <c r="C115">
+        <v>119</v>
+      </c>
+      <c r="D115">
+        <v>13900000</v>
+      </c>
+      <c r="E115" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>145445</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44809</v>
+      </c>
+      <c r="C116">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>12200000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>249953</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44816</v>
+      </c>
+      <c r="C117">
+        <v>119</v>
+      </c>
+      <c r="D117">
+        <v>5356538.625</v>
+      </c>
+      <c r="E117" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>255148</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44823</v>
+      </c>
+      <c r="C118">
+        <v>119</v>
+      </c>
+      <c r="D118">
+        <v>7605043.1880000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>249954</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44830</v>
+      </c>
+      <c r="C119">
+        <v>119</v>
+      </c>
+      <c r="D119">
+        <v>8363935.2429999998</v>
+      </c>
+      <c r="E119" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>145446</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44837</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120">
+        <v>935228.00580000004</v>
+      </c>
+      <c r="E120" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>145447</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>6869710.9900000002</v>
+      </c>
+      <c r="E121" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>145448</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44851</v>
+      </c>
+      <c r="C122">
+        <v>119</v>
+      </c>
+      <c r="D122">
+        <v>7397553.2070000004</v>
+      </c>
+      <c r="E122" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>249955</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44858</v>
+      </c>
+      <c r="C123">
+        <v>119</v>
+      </c>
+      <c r="D123">
+        <v>7450312.3729999997</v>
+      </c>
+      <c r="E123" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>255149</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44865</v>
+      </c>
+      <c r="C124">
+        <v>119</v>
+      </c>
+      <c r="D124">
+        <v>9583865.5399999991</v>
+      </c>
+      <c r="E124" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>249956</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44872</v>
+      </c>
+      <c r="C125">
+        <v>119</v>
+      </c>
+      <c r="D125">
+        <v>7054947.1799999997</v>
+      </c>
+      <c r="E125" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>255150</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44879</v>
+      </c>
+      <c r="C126">
+        <v>119</v>
+      </c>
+      <c r="D126">
+        <v>3676066.0660000001</v>
+      </c>
+      <c r="E126" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>255151</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44886</v>
+      </c>
+      <c r="C127">
+        <v>119</v>
+      </c>
+      <c r="D127">
+        <v>9012442.5850000009</v>
+      </c>
+      <c r="E127" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>145449</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44893</v>
+      </c>
+      <c r="C128">
+        <v>119</v>
+      </c>
+      <c r="D128">
+        <v>29800000</v>
+      </c>
+      <c r="E128" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>145450</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44900</v>
+      </c>
+      <c r="C129">
+        <v>119</v>
+      </c>
+      <c r="D129">
+        <v>9817086.3890000004</v>
+      </c>
+      <c r="E129" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>249957</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C130">
+        <v>119</v>
+      </c>
+      <c r="D130">
+        <v>13800000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>145451</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C131">
+        <v>119</v>
+      </c>
+      <c r="D131">
+        <v>23600000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>252526</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C132">
+        <v>119</v>
+      </c>
+      <c r="D132">
+        <v>12900000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>255152</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44935</v>
+      </c>
+      <c r="C133">
+        <v>119</v>
+      </c>
+      <c r="D133">
+        <v>4312944.0209999997</v>
+      </c>
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>249958</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44942</v>
+      </c>
+      <c r="C134">
+        <v>119</v>
+      </c>
+      <c r="D134">
+        <v>9628820.2740000002</v>
+      </c>
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>252527</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C135">
+        <v>119</v>
+      </c>
+      <c r="D135">
+        <v>13200000</v>
+      </c>
+      <c r="E135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>249959</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44956</v>
+      </c>
+      <c r="C136">
+        <v>119</v>
+      </c>
+      <c r="D136">
+        <v>17900000</v>
+      </c>
+      <c r="E136" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>145452</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44963</v>
+      </c>
+      <c r="C137">
+        <v>119</v>
+      </c>
+      <c r="D137">
+        <v>20200000</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>145453</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44970</v>
+      </c>
+      <c r="C138">
+        <v>119</v>
+      </c>
+      <c r="D138">
+        <v>38200000</v>
+      </c>
+      <c r="E138" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>252528</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44977</v>
+      </c>
+      <c r="C139">
+        <v>119</v>
+      </c>
+      <c r="D139">
+        <v>9383694.4499999993</v>
+      </c>
+      <c r="E139" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>255153</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44984</v>
+      </c>
+      <c r="C140">
+        <v>119</v>
+      </c>
+      <c r="D140">
+        <v>28500000</v>
+      </c>
+      <c r="E140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>249960</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C141">
+        <v>119</v>
+      </c>
+      <c r="D141">
+        <v>18400000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>145454</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C142">
+        <v>119</v>
+      </c>
+      <c r="D142">
+        <v>16800000</v>
+      </c>
+      <c r="E142" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>252529</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45005</v>
+      </c>
+      <c r="C143">
+        <v>119</v>
+      </c>
+      <c r="D143">
+        <v>11800000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>145455</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C144">
+        <v>119</v>
+      </c>
+      <c r="D144">
+        <v>8444845.4179999996</v>
+      </c>
+      <c r="E144" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>255154</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45019</v>
+      </c>
+      <c r="C145">
+        <v>119</v>
+      </c>
+      <c r="D145">
+        <v>8800995.3829999994</v>
+      </c>
+      <c r="E145" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>249961</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45026</v>
+      </c>
+      <c r="C146">
+        <v>119</v>
+      </c>
+      <c r="D146">
+        <v>7693151.5769999996</v>
+      </c>
+      <c r="E146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>249962</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45033</v>
+      </c>
+      <c r="C147">
+        <v>119</v>
+      </c>
+      <c r="D147">
+        <v>5718264.176</v>
+      </c>
+      <c r="E147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>252530</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C148">
+        <v>119</v>
+      </c>
+      <c r="D148">
+        <v>3783848.41</v>
+      </c>
+      <c r="E148" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>145456</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45047</v>
+      </c>
+      <c r="C149">
+        <v>119</v>
+      </c>
+      <c r="D149">
+        <v>4969058.1330000004</v>
+      </c>
+      <c r="E149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>249963</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C150">
+        <v>119</v>
+      </c>
+      <c r="D150">
+        <v>5330697.8190000001</v>
+      </c>
+      <c r="E150" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>255155</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C151">
+        <v>119</v>
+      </c>
+      <c r="D151">
+        <v>2494117.7940000002</v>
+      </c>
+      <c r="E151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>249964</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C152">
+        <v>119</v>
+      </c>
+      <c r="D152">
+        <v>1495742.514</v>
+      </c>
+      <c r="E152" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>249965</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C153">
+        <v>119</v>
+      </c>
+      <c r="D153">
+        <v>3889764.32</v>
+      </c>
+      <c r="E153" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>255156</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45082</v>
+      </c>
+      <c r="C154">
+        <v>119</v>
+      </c>
+      <c r="D154">
+        <v>2569829.4819999998</v>
+      </c>
+      <c r="E154" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>249966</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45089</v>
+      </c>
+      <c r="C155">
+        <v>119</v>
+      </c>
+      <c r="D155">
+        <v>2790512.1860000002</v>
+      </c>
+      <c r="E155" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>252531</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C156">
+        <v>119</v>
+      </c>
+      <c r="D156">
+        <v>5471735.4680000003</v>
+      </c>
+      <c r="E156" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>252532</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C157">
+        <v>119</v>
+      </c>
+      <c r="D157">
+        <v>5296776.4189999998</v>
+      </c>
+      <c r="E157" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>252533</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45111</v>
+      </c>
+      <c r="C158">
+        <v>119</v>
+      </c>
+      <c r="D158">
+        <v>5990279.6449999996</v>
+      </c>
+      <c r="E158" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>255157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45124</v>
+      </c>
+      <c r="C159">
+        <v>119</v>
+      </c>
+      <c r="D159">
+        <v>3133432.611</v>
+      </c>
+      <c r="E159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>252534</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45131</v>
+      </c>
+      <c r="C160">
+        <v>119</v>
+      </c>
+      <c r="D160">
+        <v>5381718.6679999996</v>
+      </c>
+      <c r="E160" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>255158</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45138</v>
+      </c>
+      <c r="C161">
+        <v>119</v>
+      </c>
+      <c r="D161">
+        <v>7252962.8439999996</v>
+      </c>
+      <c r="E161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>145457</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45145</v>
+      </c>
+      <c r="C162">
+        <v>119</v>
+      </c>
+      <c r="D162">
+        <v>11900000</v>
+      </c>
+      <c r="E162" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>252535</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45152</v>
+      </c>
+      <c r="C163">
+        <v>119</v>
+      </c>
+      <c r="D163">
+        <v>24700000</v>
+      </c>
+      <c r="E163" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>145458</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45159</v>
+      </c>
+      <c r="C164">
+        <v>119</v>
+      </c>
+      <c r="D164">
+        <v>111000000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>249967</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45166</v>
+      </c>
+      <c r="C165">
+        <v>119</v>
+      </c>
+      <c r="D165">
+        <v>21000000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>252536</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45173</v>
+      </c>
+      <c r="C166">
+        <v>119</v>
+      </c>
+      <c r="D166">
+        <v>40300000</v>
+      </c>
+      <c r="E166" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>145459</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45180</v>
+      </c>
+      <c r="C167">
+        <v>119</v>
+      </c>
+      <c r="D167">
+        <v>51300000</v>
+      </c>
+      <c r="E167" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>145460</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C168">
+        <v>119</v>
+      </c>
+      <c r="D168">
+        <v>25100000</v>
+      </c>
+      <c r="E168" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>145461</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C169">
+        <v>119</v>
+      </c>
+      <c r="D169">
+        <v>13000000</v>
+      </c>
+      <c r="E169" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>145462</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45201</v>
+      </c>
+      <c r="C170">
+        <v>119</v>
+      </c>
+      <c r="D170">
+        <v>8604536.1799999997</v>
+      </c>
+      <c r="E170" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>145463</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45208</v>
+      </c>
+      <c r="C171">
+        <v>119</v>
+      </c>
+      <c r="D171">
+        <v>6079510.7400000002</v>
+      </c>
+      <c r="E171" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>255159</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45215</v>
+      </c>
+      <c r="C172">
+        <v>119</v>
+      </c>
+      <c r="D172">
+        <v>2898385.1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>249968</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45222</v>
+      </c>
+      <c r="C173">
+        <v>119</v>
+      </c>
+      <c r="D173">
+        <v>13500000</v>
+      </c>
+      <c r="E173" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>252537</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45229</v>
+      </c>
+      <c r="C174">
+        <v>119</v>
+      </c>
+      <c r="D174">
+        <v>20700000</v>
+      </c>
+      <c r="E174" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>249969</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45236</v>
+      </c>
+      <c r="C175">
+        <v>119</v>
+      </c>
+      <c r="D175">
+        <v>3550739.6179999998</v>
+      </c>
+      <c r="E175" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>255160</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45243</v>
+      </c>
+      <c r="C176">
+        <v>119</v>
+      </c>
+      <c r="D176">
+        <v>6601809.2019999996</v>
+      </c>
+      <c r="E176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>252538</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C177">
+        <v>119</v>
+      </c>
+      <c r="D177">
+        <v>20800000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>29019</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>255161</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45264</v>
+      </c>
+      <c r="C178">
+        <v>119</v>
+      </c>
+      <c r="D178">
+        <v>25400000</v>
+      </c>
+      <c r="E178" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>29019</v>
       </c>
     </row>
   </sheetData>
